--- a/biology/Botanique/Calpocalyx_dinklagei/Calpocalyx_dinklagei.xlsx
+++ b/biology/Botanique/Calpocalyx_dinklagei/Calpocalyx_dinklagei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calpocalyx dinklagei est une espèce de plantes de la famille des Fabaceae et du genre Calpocalyx, présente en Afrique tropicale.
 Son épithète spécifique dinklagei rend hommage au botaniste allemand Max Julius Dinklage, spécialiste de la flore africaine.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,9 +552,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été observée au Nigeria, au Cameroun, en Guinée équatoriale, au Gabon, en république du Congo[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été observée au Nigeria, au Cameroun, en Guinée équatoriale, au Gabon, en république du Congo.
 </t>
         </is>
       </c>
@@ -569,9 +585,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son bois, dur et dense, est employé comme matériau de construction. L'écorce écrasée est appliquée sur les plaies en médecine traditionnelle[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son bois, dur et dense, est employé comme matériau de construction. L'écorce écrasée est appliquée sur les plaies en médecine traditionnelle.
 </t>
         </is>
       </c>
